--- a/2. IMPLEMENTARE/11. REGISTRE_CHELTUIELI/REGISTRU_INVESTITII.xlsx
+++ b/2. IMPLEMENTARE/11. REGISTRE_CHELTUIELI/REGISTRU_INVESTITII.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Nr</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Audit</t>
+  </si>
+  <si>
+    <t>BOGDAN DUMITRU - CAB AV</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="B1:J236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -589,7 +592,7 @@
     <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="20" customWidth="1"/>
     <col min="5" max="5" width="10" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="6" max="6" width="24.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.59765625" customWidth="1"/>
     <col min="8" max="10" width="11.59765625" style="8" customWidth="1"/>
     <col min="11" max="11" width="5.265625" customWidth="1"/>
@@ -603,7 +606,7 @@
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J236)</f>
-        <v>0</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.45">
@@ -639,24 +642,33 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>42774</v>
+      </c>
       <c r="D3" s="21" t="str">
         <f>IF(C3&lt;&gt;"",TEXT(C3,"yyyy"),"")</f>
-        <v/>
+        <v>2017</v>
       </c>
       <c r="E3" s="21" t="str">
         <f>IF(C3&lt;&gt;"",TEXT(C3,"mmm"),"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9"/>
+        <v>Feb</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6000</v>
+      </c>
       <c r="I3" s="9">
-        <v>0</v>
+        <f>H3*0.19</f>
+        <v>1140</v>
       </c>
       <c r="J3" s="7">
         <f>H3+I3</f>
-        <v>0</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">

--- a/2. IMPLEMENTARE/11. REGISTRE_CHELTUIELI/REGISTRU_INVESTITII.xlsx
+++ b/2. IMPLEMENTARE/11. REGISTRE_CHELTUIELI/REGISTRU_INVESTITII.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Nr</t>
   </si>
@@ -88,6 +88,18 @@
   <si>
     <t>BOGDAN DUMITRU - CAB AV</t>
   </si>
+  <si>
+    <t>Rambursat</t>
+  </si>
+  <si>
+    <t>Termen maxim depunere ramb</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ECHIPAMENTE</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +140,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -210,9 +244,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +271,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,77 +625,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J236"/>
+  <dimension ref="B1:L236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" customWidth="1"/>
     <col min="2" max="2" width="3.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" style="19" customWidth="1"/>
     <col min="6" max="6" width="24.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.59765625" customWidth="1"/>
-    <col min="8" max="10" width="11.59765625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="5.265625" customWidth="1"/>
-    <col min="12" max="12" width="48" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.9296875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" customWidth="1"/>
+    <col min="12" max="12" width="13.265625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I1" s="10" t="s">
+    <row r="1" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="6">
         <f>SUBTOTAL(9,J3:J236)</f>
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>68937.13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>42774</v>
       </c>
-      <c r="D3" s="21" t="str">
+      <c r="D3" s="20" t="str">
         <f>IF(C3&lt;&gt;"",TEXT(C3,"yyyy"),"")</f>
         <v>2017</v>
       </c>
-      <c r="E3" s="21" t="str">
+      <c r="E3" s="20" t="str">
         <f>IF(C3&lt;&gt;"",TEXT(C3,"mmm"),"")</f>
         <v>Feb</v>
       </c>
@@ -670,41 +724,67 @@
         <f>H3+I3</f>
         <v>7140</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="str">
+      <c r="K3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="25">
+        <f>C3+60</f>
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
         <f>IF(C4&lt;&gt;"",B3+1,"")</f>
-        <v/>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="21" t="str">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42779</v>
+      </c>
+      <c r="D4" s="20" t="str">
         <f t="shared" ref="D4:D67" si="0">IF(C4&lt;&gt;"",TEXT(C4,"yyyy"),"")</f>
-        <v/>
-      </c>
-      <c r="E4" s="21" t="str">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="20" t="str">
         <f t="shared" ref="E4:E67" si="1">IF(C4&lt;&gt;"",TEXT(C4,"mmm"),"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+        <v>Feb</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9">
+        <f>61797.13/1.19</f>
+        <v>51930.361344537814</v>
+      </c>
+      <c r="I4" s="9">
+        <f>H4*0.19</f>
+        <v>9866.7686554621851</v>
+      </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J67" si="2">H4+I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+        <v>61797.13</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="25">
+        <f>C4+60</f>
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B68" si="3">IF(C5&lt;&gt;"",B4+1,"")</f>
         <v/>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E5" s="21" t="str">
+      <c r="E5" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -716,18 +796,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="21" t="str">
+      <c r="D6" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="21" t="str">
+      <c r="E6" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -739,18 +821,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="21" t="str">
+      <c r="D7" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="21" t="str">
+      <c r="E7" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -762,18 +846,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -785,18 +871,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -808,18 +896,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="E10" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -831,18 +921,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -854,18 +946,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -877,18 +971,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="21" t="str">
+      <c r="D13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -900,18 +996,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="21" t="str">
+      <c r="D14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -923,18 +1021,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -946,18 +1046,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="21" t="str">
+      <c r="D16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -969,18 +1071,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="21" t="str">
+      <c r="D17" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -992,18 +1096,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="21" t="str">
+      <c r="D18" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1015,18 +1121,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="21" t="str">
+      <c r="D19" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1038,18 +1146,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="21" t="str">
+      <c r="D20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E20" s="21" t="str">
+      <c r="E20" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1061,18 +1171,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="21" t="str">
+      <c r="D21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1084,18 +1196,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="21" t="str">
+      <c r="D22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1107,18 +1221,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="21" t="str">
+      <c r="D23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1130,18 +1246,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="21" t="str">
+      <c r="D24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1153,18 +1271,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="21" t="str">
+      <c r="D25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E25" s="21" t="str">
+      <c r="E25" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1176,18 +1296,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="21" t="str">
+      <c r="D26" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1199,18 +1321,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="21" t="str">
+      <c r="D27" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="E27" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1222,18 +1346,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="21" t="str">
+      <c r="D28" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="E28" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1245,18 +1371,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="21" t="str">
+      <c r="D29" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="E29" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1268,18 +1396,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="21" t="str">
+      <c r="D30" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="E30" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1291,18 +1421,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="21" t="str">
+      <c r="D31" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E31" s="21" t="str">
+      <c r="E31" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1314,18 +1446,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="21" t="str">
+      <c r="D32" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="21" t="str">
+      <c r="E32" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1337,18 +1471,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="21" t="str">
+      <c r="D33" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E33" s="21" t="str">
+      <c r="E33" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1360,18 +1496,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="21" t="str">
+      <c r="D34" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E34" s="21" t="str">
+      <c r="E34" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1383,18 +1521,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="21" t="str">
+      <c r="D35" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E35" s="21" t="str">
+      <c r="E35" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1406,18 +1546,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="21" t="str">
+      <c r="D36" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="21" t="str">
+      <c r="E36" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1429,18 +1571,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="21" t="str">
+      <c r="D37" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E37" s="21" t="str">
+      <c r="E37" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1452,18 +1596,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="21" t="str">
+      <c r="D38" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E38" s="21" t="str">
+      <c r="E38" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1475,18 +1621,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="21" t="str">
+      <c r="D39" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E39" s="21" t="str">
+      <c r="E39" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1498,18 +1646,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="21" t="str">
+      <c r="D40" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E40" s="21" t="str">
+      <c r="E40" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1521,18 +1671,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="21" t="str">
+      <c r="D41" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E41" s="21" t="str">
+      <c r="E41" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1544,18 +1696,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="21" t="str">
+      <c r="D42" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E42" s="21" t="str">
+      <c r="E42" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1567,18 +1721,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="21" t="str">
+      <c r="D43" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E43" s="21" t="str">
+      <c r="E43" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1590,18 +1746,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="21" t="str">
+      <c r="D44" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E44" s="21" t="str">
+      <c r="E44" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1613,18 +1771,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="21" t="str">
+      <c r="D45" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E45" s="21" t="str">
+      <c r="E45" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1636,18 +1796,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="21" t="str">
+      <c r="D46" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E46" s="21" t="str">
+      <c r="E46" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1659,18 +1821,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="21" t="str">
+      <c r="D47" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E47" s="21" t="str">
+      <c r="E47" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1682,18 +1846,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="21" t="str">
+      <c r="D48" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E48" s="21" t="str">
+      <c r="E48" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1705,18 +1871,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="21" t="str">
+      <c r="D49" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E49" s="21" t="str">
+      <c r="E49" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1728,18 +1896,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="21" t="str">
+      <c r="D50" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E50" s="21" t="str">
+      <c r="E50" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1751,18 +1921,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="21" t="str">
+      <c r="D51" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E51" s="21" t="str">
+      <c r="E51" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1774,18 +1946,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B52" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="21" t="str">
+      <c r="D52" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E52" s="21" t="str">
+      <c r="E52" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1797,18 +1971,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="21" t="str">
+      <c r="D53" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E53" s="21" t="str">
+      <c r="E53" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1820,18 +1996,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="21" t="str">
+      <c r="D54" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E54" s="21" t="str">
+      <c r="E54" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1843,18 +2021,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B55" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="21" t="str">
+      <c r="D55" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E55" s="21" t="str">
+      <c r="E55" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1866,18 +2046,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B56" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="21" t="str">
+      <c r="D56" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E56" s="21" t="str">
+      <c r="E56" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1889,18 +2071,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B57" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="21" t="str">
+      <c r="D57" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E57" s="21" t="str">
+      <c r="E57" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1912,18 +2096,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B58" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="21" t="str">
+      <c r="D58" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E58" s="21" t="str">
+      <c r="E58" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1935,18 +2121,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B59" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="21" t="str">
+      <c r="D59" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E59" s="21" t="str">
+      <c r="E59" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1958,18 +2146,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B60" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="21" t="str">
+      <c r="D60" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E60" s="21" t="str">
+      <c r="E60" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1981,18 +2171,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B61" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="21" t="str">
+      <c r="D61" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E61" s="21" t="str">
+      <c r="E61" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2004,18 +2196,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B62" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="21" t="str">
+      <c r="D62" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E62" s="21" t="str">
+      <c r="E62" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2027,18 +2221,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B63" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="21" t="str">
+      <c r="D63" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E63" s="21" t="str">
+      <c r="E63" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2050,18 +2246,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B64" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="21" t="str">
+      <c r="D64" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E64" s="21" t="str">
+      <c r="E64" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2073,18 +2271,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="21" t="str">
+      <c r="D65" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E65" s="21" t="str">
+      <c r="E65" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2096,18 +2296,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B66" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="21" t="str">
+      <c r="D66" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E66" s="21" t="str">
+      <c r="E66" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2119,18 +2321,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B67" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="21" t="str">
+      <c r="D67" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E67" s="21" t="str">
+      <c r="E67" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2142,18 +2346,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B68" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="21" t="str">
+      <c r="D68" s="20" t="str">
         <f t="shared" ref="D68:D131" si="4">IF(C68&lt;&gt;"",TEXT(C68,"yyyy"),"")</f>
         <v/>
       </c>
-      <c r="E68" s="21" t="str">
+      <c r="E68" s="20" t="str">
         <f t="shared" ref="E68:E131" si="5">IF(C68&lt;&gt;"",TEXT(C68,"mmm"),"")</f>
         <v/>
       </c>
@@ -2165,18 +2371,20 @@
         <f t="shared" ref="J68:J131" si="6">H68+I68</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B69" s="3" t="str">
         <f t="shared" ref="B69:B132" si="7">IF(C69&lt;&gt;"",B68+1,"")</f>
         <v/>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="21" t="str">
+      <c r="D69" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E69" s="21" t="str">
+      <c r="E69" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2188,18 +2396,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B70" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="21" t="str">
+      <c r="D70" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E70" s="21" t="str">
+      <c r="E70" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2211,18 +2421,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B71" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="21" t="str">
+      <c r="D71" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E71" s="21" t="str">
+      <c r="E71" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2234,18 +2446,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B72" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="21" t="str">
+      <c r="D72" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E72" s="21" t="str">
+      <c r="E72" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2257,18 +2471,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B73" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="21" t="str">
+      <c r="D73" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E73" s="21" t="str">
+      <c r="E73" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2280,18 +2496,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B74" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="21" t="str">
+      <c r="D74" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E74" s="21" t="str">
+      <c r="E74" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2303,18 +2521,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B75" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="21" t="str">
+      <c r="D75" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E75" s="21" t="str">
+      <c r="E75" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2326,18 +2546,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B76" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="21" t="str">
+      <c r="D76" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E76" s="21" t="str">
+      <c r="E76" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2349,18 +2571,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B77" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="21" t="str">
+      <c r="D77" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E77" s="21" t="str">
+      <c r="E77" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2372,18 +2596,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B78" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="21" t="str">
+      <c r="D78" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E78" s="21" t="str">
+      <c r="E78" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2395,18 +2621,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B79" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="21" t="str">
+      <c r="D79" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E79" s="21" t="str">
+      <c r="E79" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2418,18 +2646,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B80" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="21" t="str">
+      <c r="D80" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E80" s="21" t="str">
+      <c r="E80" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2441,18 +2671,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B81" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="21" t="str">
+      <c r="D81" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E81" s="21" t="str">
+      <c r="E81" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2464,18 +2696,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B82" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="21" t="str">
+      <c r="D82" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E82" s="21" t="str">
+      <c r="E82" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2487,18 +2721,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B83" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="21" t="str">
+      <c r="D83" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E83" s="21" t="str">
+      <c r="E83" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2510,18 +2746,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B84" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="21" t="str">
+      <c r="D84" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E84" s="21" t="str">
+      <c r="E84" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2533,18 +2771,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B85" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="21" t="str">
+      <c r="D85" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E85" s="21" t="str">
+      <c r="E85" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2556,18 +2796,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B86" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="21" t="str">
+      <c r="D86" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E86" s="21" t="str">
+      <c r="E86" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2579,18 +2821,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B87" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C87" s="4"/>
-      <c r="D87" s="21" t="str">
+      <c r="D87" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E87" s="21" t="str">
+      <c r="E87" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2602,18 +2846,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C88" s="4"/>
-      <c r="D88" s="21" t="str">
+      <c r="D88" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E88" s="21" t="str">
+      <c r="E88" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2625,18 +2871,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B89" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="21" t="str">
+      <c r="D89" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E89" s="21" t="str">
+      <c r="E89" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2648,18 +2896,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="21" t="str">
+      <c r="D90" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E90" s="21" t="str">
+      <c r="E90" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2671,18 +2921,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="21" t="str">
+      <c r="D91" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E91" s="21" t="str">
+      <c r="E91" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2694,18 +2946,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="21" t="str">
+      <c r="D92" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E92" s="21" t="str">
+      <c r="E92" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2717,18 +2971,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B93" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="21" t="str">
+      <c r="D93" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E93" s="21" t="str">
+      <c r="E93" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2740,18 +2996,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B94" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="21" t="str">
+      <c r="D94" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E94" s="21" t="str">
+      <c r="E94" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2763,18 +3021,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B95" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C95" s="4"/>
-      <c r="D95" s="21" t="str">
+      <c r="D95" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E95" s="21" t="str">
+      <c r="E95" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2786,18 +3046,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B96" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="21" t="str">
+      <c r="D96" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E96" s="21" t="str">
+      <c r="E96" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2809,18 +3071,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B97" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="21" t="str">
+      <c r="D97" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E97" s="21" t="str">
+      <c r="E97" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2832,18 +3096,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B98" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="21" t="str">
+      <c r="D98" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E98" s="21" t="str">
+      <c r="E98" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2855,18 +3121,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B99" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="21" t="str">
+      <c r="D99" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E99" s="21" t="str">
+      <c r="E99" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2878,18 +3146,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B100" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="21" t="str">
+      <c r="D100" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E100" s="21" t="str">
+      <c r="E100" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2901,18 +3171,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B101" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="21" t="str">
+      <c r="D101" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E101" s="21" t="str">
+      <c r="E101" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2924,18 +3196,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B102" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="21" t="str">
+      <c r="D102" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E102" s="21" t="str">
+      <c r="E102" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2947,18 +3221,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B103" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="21" t="str">
+      <c r="D103" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E103" s="21" t="str">
+      <c r="E103" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2970,18 +3246,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B104" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="21" t="str">
+      <c r="D104" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E104" s="21" t="str">
+      <c r="E104" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2993,18 +3271,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B105" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="21" t="str">
+      <c r="D105" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E105" s="21" t="str">
+      <c r="E105" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3016,18 +3296,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B106" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C106" s="4"/>
-      <c r="D106" s="21" t="str">
+      <c r="D106" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E106" s="21" t="str">
+      <c r="E106" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3039,18 +3321,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B107" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="21" t="str">
+      <c r="D107" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E107" s="21" t="str">
+      <c r="E107" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3062,18 +3346,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B108" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="21" t="str">
+      <c r="D108" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E108" s="21" t="str">
+      <c r="E108" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3085,18 +3371,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B109" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C109" s="4"/>
-      <c r="D109" s="21" t="str">
+      <c r="D109" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E109" s="21" t="str">
+      <c r="E109" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3108,18 +3396,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B110" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" s="21" t="str">
+      <c r="D110" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E110" s="21" t="str">
+      <c r="E110" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3131,18 +3421,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B111" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="21" t="str">
+      <c r="D111" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E111" s="21" t="str">
+      <c r="E111" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3154,18 +3446,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B112" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="21" t="str">
+      <c r="D112" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E112" s="21" t="str">
+      <c r="E112" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3177,18 +3471,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B113" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="21" t="str">
+      <c r="D113" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E113" s="21" t="str">
+      <c r="E113" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3200,18 +3496,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B114" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="21" t="str">
+      <c r="D114" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E114" s="21" t="str">
+      <c r="E114" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3223,18 +3521,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="21" t="str">
+      <c r="D115" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E115" s="21" t="str">
+      <c r="E115" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3246,18 +3546,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="21" t="str">
+      <c r="D116" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E116" s="21" t="str">
+      <c r="E116" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3269,18 +3571,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="21" t="str">
+      <c r="D117" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E117" s="21" t="str">
+      <c r="E117" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3292,18 +3596,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="21" t="str">
+      <c r="D118" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E118" s="21" t="str">
+      <c r="E118" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3315,18 +3621,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B119" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C119" s="4"/>
-      <c r="D119" s="21" t="str">
+      <c r="D119" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E119" s="21" t="str">
+      <c r="E119" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3338,18 +3646,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B120" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C120" s="4"/>
-      <c r="D120" s="21" t="str">
+      <c r="D120" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E120" s="21" t="str">
+      <c r="E120" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3361,18 +3671,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B121" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C121" s="4"/>
-      <c r="D121" s="21" t="str">
+      <c r="D121" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E121" s="21" t="str">
+      <c r="E121" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3384,18 +3696,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B122" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C122" s="4"/>
-      <c r="D122" s="21" t="str">
+      <c r="D122" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E122" s="21" t="str">
+      <c r="E122" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3407,18 +3721,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B123" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C123" s="4"/>
-      <c r="D123" s="21" t="str">
+      <c r="D123" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E123" s="21" t="str">
+      <c r="E123" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3430,18 +3746,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B124" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="21" t="str">
+      <c r="D124" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E124" s="21" t="str">
+      <c r="E124" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3453,18 +3771,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B125" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C125" s="4"/>
-      <c r="D125" s="21" t="str">
+      <c r="D125" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E125" s="21" t="str">
+      <c r="E125" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3476,18 +3796,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B126" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C126" s="4"/>
-      <c r="D126" s="21" t="str">
+      <c r="D126" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E126" s="21" t="str">
+      <c r="E126" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3499,18 +3821,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B127" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="21" t="str">
+      <c r="D127" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E127" s="21" t="str">
+      <c r="E127" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3522,18 +3846,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B128" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C128" s="4"/>
-      <c r="D128" s="21" t="str">
+      <c r="D128" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E128" s="21" t="str">
+      <c r="E128" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3545,18 +3871,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B129" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C129" s="4"/>
-      <c r="D129" s="21" t="str">
+      <c r="D129" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E129" s="21" t="str">
+      <c r="E129" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3568,18 +3896,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B130" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C130" s="4"/>
-      <c r="D130" s="21" t="str">
+      <c r="D130" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E130" s="21" t="str">
+      <c r="E130" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3591,18 +3921,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B131" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C131" s="4"/>
-      <c r="D131" s="21" t="str">
+      <c r="D131" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E131" s="21" t="str">
+      <c r="E131" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3614,18 +3946,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B132" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C132" s="4"/>
-      <c r="D132" s="21" t="str">
+      <c r="D132" s="20" t="str">
         <f t="shared" ref="D132:D195" si="8">IF(C132&lt;&gt;"",TEXT(C132,"yyyy"),"")</f>
         <v/>
       </c>
-      <c r="E132" s="21" t="str">
+      <c r="E132" s="20" t="str">
         <f t="shared" ref="E132:E195" si="9">IF(C132&lt;&gt;"",TEXT(C132,"mmm"),"")</f>
         <v/>
       </c>
@@ -3637,18 +3971,20 @@
         <f t="shared" ref="J132:J195" si="10">H132+I132</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B133" s="3" t="str">
         <f t="shared" ref="B133:B196" si="11">IF(C133&lt;&gt;"",B132+1,"")</f>
         <v/>
       </c>
       <c r="C133" s="4"/>
-      <c r="D133" s="21" t="str">
+      <c r="D133" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E133" s="21" t="str">
+      <c r="E133" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3660,18 +3996,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B134" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C134" s="4"/>
-      <c r="D134" s="21" t="str">
+      <c r="D134" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E134" s="21" t="str">
+      <c r="E134" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3683,18 +4021,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B135" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C135" s="4"/>
-      <c r="D135" s="21" t="str">
+      <c r="D135" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E135" s="21" t="str">
+      <c r="E135" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3706,18 +4046,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B136" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C136" s="4"/>
-      <c r="D136" s="21" t="str">
+      <c r="D136" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E136" s="21" t="str">
+      <c r="E136" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3729,18 +4071,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B137" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C137" s="4"/>
-      <c r="D137" s="21" t="str">
+      <c r="D137" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E137" s="21" t="str">
+      <c r="E137" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3752,18 +4096,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B138" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C138" s="4"/>
-      <c r="D138" s="21" t="str">
+      <c r="D138" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E138" s="21" t="str">
+      <c r="E138" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3775,18 +4121,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B139" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C139" s="4"/>
-      <c r="D139" s="21" t="str">
+      <c r="D139" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E139" s="21" t="str">
+      <c r="E139" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3798,18 +4146,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B140" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C140" s="4"/>
-      <c r="D140" s="21" t="str">
+      <c r="D140" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E140" s="21" t="str">
+      <c r="E140" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3821,18 +4171,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B141" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C141" s="4"/>
-      <c r="D141" s="21" t="str">
+      <c r="D141" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E141" s="21" t="str">
+      <c r="E141" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3844,18 +4196,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B142" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C142" s="4"/>
-      <c r="D142" s="21" t="str">
+      <c r="D142" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E142" s="21" t="str">
+      <c r="E142" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3867,18 +4221,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B143" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C143" s="4"/>
-      <c r="D143" s="21" t="str">
+      <c r="D143" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E143" s="21" t="str">
+      <c r="E143" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3890,18 +4246,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B144" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="21" t="str">
+      <c r="D144" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E144" s="21" t="str">
+      <c r="E144" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3913,18 +4271,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B145" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C145" s="4"/>
-      <c r="D145" s="21" t="str">
+      <c r="D145" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E145" s="21" t="str">
+      <c r="E145" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3936,18 +4296,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B146" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="21" t="str">
+      <c r="D146" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E146" s="21" t="str">
+      <c r="E146" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3959,18 +4321,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B147" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C147" s="4"/>
-      <c r="D147" s="21" t="str">
+      <c r="D147" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E147" s="21" t="str">
+      <c r="E147" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -3982,18 +4346,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B148" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="21" t="str">
+      <c r="D148" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E148" s="21" t="str">
+      <c r="E148" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4005,18 +4371,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B149" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C149" s="4"/>
-      <c r="D149" s="21" t="str">
+      <c r="D149" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E149" s="21" t="str">
+      <c r="E149" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4028,18 +4396,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B150" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C150" s="4"/>
-      <c r="D150" s="21" t="str">
+      <c r="D150" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E150" s="21" t="str">
+      <c r="E150" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4051,18 +4421,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B151" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C151" s="4"/>
-      <c r="D151" s="21" t="str">
+      <c r="D151" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E151" s="21" t="str">
+      <c r="E151" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4074,18 +4446,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K151" s="24"/>
+      <c r="L151" s="24"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B152" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C152" s="4"/>
-      <c r="D152" s="21" t="str">
+      <c r="D152" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E152" s="21" t="str">
+      <c r="E152" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4097,18 +4471,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K152" s="24"/>
+      <c r="L152" s="24"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B153" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C153" s="4"/>
-      <c r="D153" s="21" t="str">
+      <c r="D153" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E153" s="21" t="str">
+      <c r="E153" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4120,18 +4496,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B154" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C154" s="4"/>
-      <c r="D154" s="21" t="str">
+      <c r="D154" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E154" s="21" t="str">
+      <c r="E154" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4143,18 +4521,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B155" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C155" s="4"/>
-      <c r="D155" s="21" t="str">
+      <c r="D155" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E155" s="21" t="str">
+      <c r="E155" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4166,18 +4546,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B156" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C156" s="4"/>
-      <c r="D156" s="21" t="str">
+      <c r="D156" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E156" s="21" t="str">
+      <c r="E156" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4189,18 +4571,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B157" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C157" s="4"/>
-      <c r="D157" s="21" t="str">
+      <c r="D157" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E157" s="21" t="str">
+      <c r="E157" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4212,18 +4596,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B158" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="21" t="str">
+      <c r="D158" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E158" s="21" t="str">
+      <c r="E158" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4235,18 +4621,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B159" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C159" s="4"/>
-      <c r="D159" s="21" t="str">
+      <c r="D159" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E159" s="21" t="str">
+      <c r="E159" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4258,18 +4646,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B160" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="21" t="str">
+      <c r="D160" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E160" s="21" t="str">
+      <c r="E160" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4281,18 +4671,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B161" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C161" s="4"/>
-      <c r="D161" s="21" t="str">
+      <c r="D161" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E161" s="21" t="str">
+      <c r="E161" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4304,18 +4696,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B162" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C162" s="4"/>
-      <c r="D162" s="21" t="str">
+      <c r="D162" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E162" s="21" t="str">
+      <c r="E162" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4327,18 +4721,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B163" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="21" t="str">
+      <c r="D163" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E163" s="21" t="str">
+      <c r="E163" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4350,18 +4746,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B164" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="21" t="str">
+      <c r="D164" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E164" s="21" t="str">
+      <c r="E164" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4373,18 +4771,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B165" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="21" t="str">
+      <c r="D165" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E165" s="21" t="str">
+      <c r="E165" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4396,18 +4796,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B166" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C166" s="4"/>
-      <c r="D166" s="21" t="str">
+      <c r="D166" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E166" s="21" t="str">
+      <c r="E166" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4419,18 +4821,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C167" s="4"/>
-      <c r="D167" s="21" t="str">
+      <c r="D167" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E167" s="21" t="str">
+      <c r="E167" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4442,18 +4846,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B168" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="21" t="str">
+      <c r="D168" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E168" s="21" t="str">
+      <c r="E168" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4465,18 +4871,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B169" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C169" s="4"/>
-      <c r="D169" s="21" t="str">
+      <c r="D169" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E169" s="21" t="str">
+      <c r="E169" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4488,18 +4896,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B170" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C170" s="4"/>
-      <c r="D170" s="21" t="str">
+      <c r="D170" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E170" s="21" t="str">
+      <c r="E170" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4511,18 +4921,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B171" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C171" s="4"/>
-      <c r="D171" s="21" t="str">
+      <c r="D171" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E171" s="21" t="str">
+      <c r="E171" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4534,18 +4946,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B172" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C172" s="4"/>
-      <c r="D172" s="21" t="str">
+      <c r="D172" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E172" s="21" t="str">
+      <c r="E172" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4557,18 +4971,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B173" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C173" s="4"/>
-      <c r="D173" s="21" t="str">
+      <c r="D173" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E173" s="21" t="str">
+      <c r="E173" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4580,18 +4996,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B174" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C174" s="4"/>
-      <c r="D174" s="21" t="str">
+      <c r="D174" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E174" s="21" t="str">
+      <c r="E174" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4603,18 +5021,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B175" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C175" s="4"/>
-      <c r="D175" s="21" t="str">
+      <c r="D175" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E175" s="21" t="str">
+      <c r="E175" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4626,18 +5046,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B176" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C176" s="4"/>
-      <c r="D176" s="21" t="str">
+      <c r="D176" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E176" s="21" t="str">
+      <c r="E176" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4649,18 +5071,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C177" s="4"/>
-      <c r="D177" s="21" t="str">
+      <c r="D177" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E177" s="21" t="str">
+      <c r="E177" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4672,18 +5096,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C178" s="4"/>
-      <c r="D178" s="21" t="str">
+      <c r="D178" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E178" s="21" t="str">
+      <c r="E178" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4695,18 +5121,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B179" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C179" s="4"/>
-      <c r="D179" s="21" t="str">
+      <c r="D179" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E179" s="21" t="str">
+      <c r="E179" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4718,18 +5146,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B180" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C180" s="4"/>
-      <c r="D180" s="21" t="str">
+      <c r="D180" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E180" s="21" t="str">
+      <c r="E180" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4741,18 +5171,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B181" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C181" s="4"/>
-      <c r="D181" s="21" t="str">
+      <c r="D181" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E181" s="21" t="str">
+      <c r="E181" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4764,18 +5196,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B182" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C182" s="4"/>
-      <c r="D182" s="21" t="str">
+      <c r="D182" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E182" s="21" t="str">
+      <c r="E182" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4787,18 +5221,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B183" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="21" t="str">
+      <c r="D183" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E183" s="21" t="str">
+      <c r="E183" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4810,18 +5246,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B184" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C184" s="4"/>
-      <c r="D184" s="21" t="str">
+      <c r="D184" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E184" s="21" t="str">
+      <c r="E184" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4833,18 +5271,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B185" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C185" s="4"/>
-      <c r="D185" s="21" t="str">
+      <c r="D185" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E185" s="21" t="str">
+      <c r="E185" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4856,18 +5296,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B186" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C186" s="4"/>
-      <c r="D186" s="21" t="str">
+      <c r="D186" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E186" s="21" t="str">
+      <c r="E186" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4879,18 +5321,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B187" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C187" s="4"/>
-      <c r="D187" s="21" t="str">
+      <c r="D187" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E187" s="21" t="str">
+      <c r="E187" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4902,18 +5346,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K187" s="24"/>
+      <c r="L187" s="24"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B188" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C188" s="4"/>
-      <c r="D188" s="21" t="str">
+      <c r="D188" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E188" s="21" t="str">
+      <c r="E188" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4925,18 +5371,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B189" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C189" s="4"/>
-      <c r="D189" s="21" t="str">
+      <c r="D189" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E189" s="21" t="str">
+      <c r="E189" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4948,18 +5396,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B190" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C190" s="4"/>
-      <c r="D190" s="21" t="str">
+      <c r="D190" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E190" s="21" t="str">
+      <c r="E190" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4971,18 +5421,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B191" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C191" s="4"/>
-      <c r="D191" s="21" t="str">
+      <c r="D191" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E191" s="21" t="str">
+      <c r="E191" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -4994,18 +5446,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B192" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C192" s="4"/>
-      <c r="D192" s="21" t="str">
+      <c r="D192" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E192" s="21" t="str">
+      <c r="E192" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -5017,18 +5471,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B193" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C193" s="4"/>
-      <c r="D193" s="21" t="str">
+      <c r="D193" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E193" s="21" t="str">
+      <c r="E193" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -5040,18 +5496,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B194" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C194" s="4"/>
-      <c r="D194" s="21" t="str">
+      <c r="D194" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E194" s="21" t="str">
+      <c r="E194" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -5063,18 +5521,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K194" s="24"/>
+      <c r="L194" s="24"/>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B195" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C195" s="4"/>
-      <c r="D195" s="21" t="str">
+      <c r="D195" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E195" s="21" t="str">
+      <c r="E195" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -5086,18 +5546,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K195" s="24"/>
+      <c r="L195" s="24"/>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B196" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C196" s="4"/>
-      <c r="D196" s="21" t="str">
+      <c r="D196" s="20" t="str">
         <f t="shared" ref="D196:D236" si="12">IF(C196&lt;&gt;"",TEXT(C196,"yyyy"),"")</f>
         <v/>
       </c>
-      <c r="E196" s="21" t="str">
+      <c r="E196" s="20" t="str">
         <f t="shared" ref="E196:E236" si="13">IF(C196&lt;&gt;"",TEXT(C196,"mmm"),"")</f>
         <v/>
       </c>
@@ -5109,18 +5571,20 @@
         <f t="shared" ref="J196:J236" si="14">H196+I196</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K196" s="24"/>
+      <c r="L196" s="24"/>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B197" s="3" t="str">
         <f t="shared" ref="B197:B236" si="15">IF(C197&lt;&gt;"",B196+1,"")</f>
         <v/>
       </c>
       <c r="C197" s="4"/>
-      <c r="D197" s="21" t="str">
+      <c r="D197" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E197" s="21" t="str">
+      <c r="E197" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5132,18 +5596,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K197" s="24"/>
+      <c r="L197" s="24"/>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B198" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C198" s="4"/>
-      <c r="D198" s="21" t="str">
+      <c r="D198" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E198" s="21" t="str">
+      <c r="E198" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5155,18 +5621,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B199" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C199" s="4"/>
-      <c r="D199" s="21" t="str">
+      <c r="D199" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E199" s="21" t="str">
+      <c r="E199" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5178,18 +5646,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B200" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C200" s="4"/>
-      <c r="D200" s="21" t="str">
+      <c r="D200" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E200" s="21" t="str">
+      <c r="E200" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5201,18 +5671,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B201" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C201" s="4"/>
-      <c r="D201" s="21" t="str">
+      <c r="D201" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E201" s="21" t="str">
+      <c r="E201" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5224,18 +5696,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K201" s="24"/>
+      <c r="L201" s="24"/>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B202" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C202" s="4"/>
-      <c r="D202" s="21" t="str">
+      <c r="D202" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E202" s="21" t="str">
+      <c r="E202" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5247,18 +5721,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B203" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="21" t="str">
+      <c r="D203" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E203" s="21" t="str">
+      <c r="E203" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5270,18 +5746,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B204" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C204" s="4"/>
-      <c r="D204" s="21" t="str">
+      <c r="D204" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E204" s="21" t="str">
+      <c r="E204" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5293,18 +5771,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K204" s="24"/>
+      <c r="L204" s="24"/>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B205" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C205" s="4"/>
-      <c r="D205" s="21" t="str">
+      <c r="D205" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E205" s="21" t="str">
+      <c r="E205" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5316,18 +5796,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B206" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C206" s="4"/>
-      <c r="D206" s="21" t="str">
+      <c r="D206" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E206" s="21" t="str">
+      <c r="E206" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5339,18 +5821,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K206" s="24"/>
+      <c r="L206" s="24"/>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B207" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C207" s="4"/>
-      <c r="D207" s="21" t="str">
+      <c r="D207" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E207" s="21" t="str">
+      <c r="E207" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5362,18 +5846,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B208" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C208" s="4"/>
-      <c r="D208" s="21" t="str">
+      <c r="D208" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E208" s="21" t="str">
+      <c r="E208" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5385,18 +5871,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K208" s="24"/>
+      <c r="L208" s="24"/>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B209" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C209" s="4"/>
-      <c r="D209" s="21" t="str">
+      <c r="D209" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E209" s="21" t="str">
+      <c r="E209" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5408,18 +5896,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K209" s="24"/>
+      <c r="L209" s="24"/>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B210" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C210" s="4"/>
-      <c r="D210" s="21" t="str">
+      <c r="D210" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E210" s="21" t="str">
+      <c r="E210" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5431,18 +5921,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K210" s="24"/>
+      <c r="L210" s="24"/>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B211" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C211" s="4"/>
-      <c r="D211" s="21" t="str">
+      <c r="D211" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E211" s="21" t="str">
+      <c r="E211" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5454,18 +5946,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K211" s="24"/>
+      <c r="L211" s="24"/>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B212" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C212" s="4"/>
-      <c r="D212" s="21" t="str">
+      <c r="D212" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E212" s="21" t="str">
+      <c r="E212" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5477,18 +5971,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K212" s="24"/>
+      <c r="L212" s="24"/>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B213" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C213" s="4"/>
-      <c r="D213" s="21" t="str">
+      <c r="D213" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E213" s="21" t="str">
+      <c r="E213" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5500,18 +5996,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K213" s="24"/>
+      <c r="L213" s="24"/>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B214" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C214" s="4"/>
-      <c r="D214" s="21" t="str">
+      <c r="D214" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E214" s="21" t="str">
+      <c r="E214" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5523,18 +6021,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K214" s="24"/>
+      <c r="L214" s="24"/>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B215" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C215" s="4"/>
-      <c r="D215" s="21" t="str">
+      <c r="D215" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E215" s="21" t="str">
+      <c r="E215" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5546,18 +6046,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K215" s="24"/>
+      <c r="L215" s="24"/>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B216" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C216" s="4"/>
-      <c r="D216" s="21" t="str">
+      <c r="D216" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E216" s="21" t="str">
+      <c r="E216" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5569,18 +6071,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K216" s="24"/>
+      <c r="L216" s="24"/>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B217" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C217" s="4"/>
-      <c r="D217" s="21" t="str">
+      <c r="D217" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E217" s="21" t="str">
+      <c r="E217" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5592,18 +6096,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K217" s="24"/>
+      <c r="L217" s="24"/>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B218" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C218" s="4"/>
-      <c r="D218" s="21" t="str">
+      <c r="D218" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E218" s="21" t="str">
+      <c r="E218" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5615,18 +6121,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K218" s="24"/>
+      <c r="L218" s="24"/>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B219" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C219" s="4"/>
-      <c r="D219" s="21" t="str">
+      <c r="D219" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E219" s="21" t="str">
+      <c r="E219" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5638,18 +6146,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K219" s="24"/>
+      <c r="L219" s="24"/>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B220" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C220" s="4"/>
-      <c r="D220" s="21" t="str">
+      <c r="D220" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E220" s="21" t="str">
+      <c r="E220" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5661,18 +6171,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K220" s="24"/>
+      <c r="L220" s="24"/>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B221" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C221" s="4"/>
-      <c r="D221" s="21" t="str">
+      <c r="D221" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E221" s="21" t="str">
+      <c r="E221" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5684,18 +6196,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K221" s="24"/>
+      <c r="L221" s="24"/>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B222" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C222" s="4"/>
-      <c r="D222" s="21" t="str">
+      <c r="D222" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E222" s="21" t="str">
+      <c r="E222" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5707,18 +6221,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K222" s="24"/>
+      <c r="L222" s="24"/>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B223" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C223" s="4"/>
-      <c r="D223" s="21" t="str">
+      <c r="D223" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E223" s="21" t="str">
+      <c r="E223" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5730,18 +6246,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K223" s="24"/>
+      <c r="L223" s="24"/>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B224" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C224" s="4"/>
-      <c r="D224" s="21" t="str">
+      <c r="D224" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E224" s="21" t="str">
+      <c r="E224" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5753,18 +6271,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K224" s="24"/>
+      <c r="L224" s="24"/>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B225" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C225" s="4"/>
-      <c r="D225" s="21" t="str">
+      <c r="D225" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E225" s="21" t="str">
+      <c r="E225" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5776,18 +6296,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K225" s="24"/>
+      <c r="L225" s="24"/>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B226" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C226" s="4"/>
-      <c r="D226" s="21" t="str">
+      <c r="D226" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E226" s="21" t="str">
+      <c r="E226" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5799,18 +6321,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K226" s="24"/>
+      <c r="L226" s="24"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B227" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C227" s="4"/>
-      <c r="D227" s="21" t="str">
+      <c r="D227" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E227" s="21" t="str">
+      <c r="E227" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5822,18 +6346,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K227" s="24"/>
+      <c r="L227" s="24"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B228" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C228" s="4"/>
-      <c r="D228" s="21" t="str">
+      <c r="D228" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E228" s="21" t="str">
+      <c r="E228" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5845,18 +6371,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K228" s="24"/>
+      <c r="L228" s="24"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B229" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C229" s="4"/>
-      <c r="D229" s="21" t="str">
+      <c r="D229" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E229" s="21" t="str">
+      <c r="E229" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5868,18 +6396,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K229" s="24"/>
+      <c r="L229" s="24"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B230" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C230" s="4"/>
-      <c r="D230" s="21" t="str">
+      <c r="D230" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E230" s="21" t="str">
+      <c r="E230" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5891,18 +6421,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K230" s="24"/>
+      <c r="L230" s="24"/>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B231" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C231" s="4"/>
-      <c r="D231" s="21" t="str">
+      <c r="D231" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E231" s="21" t="str">
+      <c r="E231" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5914,18 +6446,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K231" s="24"/>
+      <c r="L231" s="24"/>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B232" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C232" s="4"/>
-      <c r="D232" s="21" t="str">
+      <c r="D232" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E232" s="21" t="str">
+      <c r="E232" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5937,18 +6471,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K232" s="24"/>
+      <c r="L232" s="24"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B233" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C233" s="4"/>
-      <c r="D233" s="21" t="str">
+      <c r="D233" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E233" s="21" t="str">
+      <c r="E233" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5960,18 +6496,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K233" s="24"/>
+      <c r="L233" s="24"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B234" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C234" s="4"/>
-      <c r="D234" s="21" t="str">
+      <c r="D234" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E234" s="21" t="str">
+      <c r="E234" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -5983,18 +6521,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K234" s="24"/>
+      <c r="L234" s="24"/>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B235" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C235" s="4"/>
-      <c r="D235" s="21" t="str">
+      <c r="D235" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E235" s="21" t="str">
+      <c r="E235" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -6006,18 +6546,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="K235" s="24"/>
+      <c r="L235" s="24"/>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B236" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C236" s="4"/>
-      <c r="D236" s="21" t="str">
+      <c r="D236" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E236" s="21" t="str">
+      <c r="E236" s="20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -6029,6 +6571,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="K236" s="24"/>
+      <c r="L236" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="D2:F236"/>
@@ -6059,10 +6603,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="58" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="17"/>
+    <col min="1" max="1" width="3.73046875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="58" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.5">
@@ -6071,61 +6615,61 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="22"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="22"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="22"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="22"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="22"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="22"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
     </row>
